--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Egf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Egf-Egfr.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H2">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I2">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J2">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>0.03086495148600001</v>
+        <v>0.09672312371555555</v>
       </c>
       <c r="R2">
-        <v>0.277784563374</v>
+        <v>0.8705081134399999</v>
       </c>
       <c r="S2">
-        <v>0.0003854180569508306</v>
+        <v>0.001981988519062985</v>
       </c>
       <c r="T2">
-        <v>0.0003854180569508306</v>
+        <v>0.001981988519062984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H3">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I3">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J3">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>2.028539030429667</v>
+        <v>2.715738634519556</v>
       </c>
       <c r="R3">
-        <v>18.256851273867</v>
+        <v>24.441647710676</v>
       </c>
       <c r="S3">
-        <v>0.02533085373264739</v>
+        <v>0.05564918281819194</v>
       </c>
       <c r="T3">
-        <v>0.02533085373264739</v>
+        <v>0.05564918281819192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H4">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I4">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J4">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>0.01029663754033333</v>
+        <v>0.0496799704831111</v>
       </c>
       <c r="R4">
-        <v>0.09266973786300001</v>
+        <v>0.4471197343479999</v>
       </c>
       <c r="S4">
-        <v>0.0001285765842114582</v>
+        <v>0.00101801024762684</v>
       </c>
       <c r="T4">
-        <v>0.0001285765842114583</v>
+        <v>0.001018010247626839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H5">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I5">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J5">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>0.8741533647803335</v>
+        <v>0.4489739799782222</v>
       </c>
       <c r="R5">
-        <v>7.867380283023002</v>
+        <v>4.040765819803999</v>
       </c>
       <c r="S5">
-        <v>0.01091576286726021</v>
+        <v>0.009200088246650974</v>
       </c>
       <c r="T5">
-        <v>0.01091576286726021</v>
+        <v>0.009200088246650973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H6">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I6">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J6">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>0.1122109784166667</v>
+        <v>0.2827417227506667</v>
       </c>
       <c r="R6">
-        <v>1.00989880575</v>
+        <v>2.544675504756</v>
       </c>
       <c r="S6">
-        <v>0.001401205418693761</v>
+        <v>0.005793762926845855</v>
       </c>
       <c r="T6">
-        <v>0.001401205418693761</v>
+        <v>0.005793762926845853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H7">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I7">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J7">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>0.019357824072</v>
+        <v>0.010211264364</v>
       </c>
       <c r="R7">
-        <v>0.174220416648</v>
+        <v>0.09190137927599999</v>
       </c>
       <c r="S7">
-        <v>0.0002417257951631777</v>
+        <v>0.0002092427121572595</v>
       </c>
       <c r="T7">
-        <v>0.0002417257951631778</v>
+        <v>0.0002092427121572594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.794766</v>
       </c>
       <c r="I8">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J8">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>0.185083516548</v>
+        <v>0.4332393096266667</v>
       </c>
       <c r="R8">
-        <v>1.665751648932</v>
+        <v>3.89915378664</v>
       </c>
       <c r="S8">
-        <v>0.002311182292119059</v>
+        <v>0.008877663424229651</v>
       </c>
       <c r="T8">
-        <v>0.00231118229211906</v>
+        <v>0.008877663424229647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.794766</v>
       </c>
       <c r="I9">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J9">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
         <v>12.16425489530067</v>
@@ -1013,10 +1013,10 @@
         <v>109.478294057706</v>
       </c>
       <c r="S9">
-        <v>0.1518979703605879</v>
+        <v>0.2492621476570884</v>
       </c>
       <c r="T9">
-        <v>0.1518979703605879</v>
+        <v>0.2492621476570883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.794766</v>
       </c>
       <c r="I10">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J10">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>0.06174439915933334</v>
+        <v>0.2225250311153333</v>
       </c>
       <c r="R10">
-        <v>0.555699592434</v>
+        <v>2.002725280038</v>
       </c>
       <c r="S10">
-        <v>0.0007710171312720509</v>
+        <v>0.00455984091427553</v>
       </c>
       <c r="T10">
-        <v>0.000771017131272051</v>
+        <v>0.004559840914275528</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.794766</v>
       </c>
       <c r="I11">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J11">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>5.241912621479333</v>
+        <v>2.011030761352667</v>
       </c>
       <c r="R11">
-        <v>47.177213593314</v>
+        <v>18.099276852174</v>
       </c>
       <c r="S11">
-        <v>0.06545702099007016</v>
+        <v>0.0412087588507282</v>
       </c>
       <c r="T11">
-        <v>0.06545702099007016</v>
+        <v>0.04120875885072818</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.794766</v>
       </c>
       <c r="I12">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J12">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>0.6728798031666666</v>
+        <v>1.266448229354</v>
       </c>
       <c r="R12">
-        <v>6.0559182285</v>
+        <v>11.398034064186</v>
       </c>
       <c r="S12">
-        <v>0.00840241159671311</v>
+        <v>0.0259512488239003</v>
       </c>
       <c r="T12">
-        <v>0.008402411596713111</v>
+        <v>0.02595124882390028</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>0.794766</v>
       </c>
       <c r="I13">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J13">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>0.116080342896</v>
+        <v>0.045737988534</v>
       </c>
       <c r="R13">
-        <v>1.044723086064</v>
+        <v>0.411641896806</v>
       </c>
       <c r="S13">
-        <v>0.001449523101614327</v>
+        <v>0.0009372336694378621</v>
       </c>
       <c r="T13">
-        <v>0.001449523101614327</v>
+        <v>0.0009372336694378617</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1903823333333333</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H14">
-        <v>0.5711470000000001</v>
+        <v>0.39979</v>
       </c>
       <c r="I14">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J14">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>0.133007571066</v>
+        <v>0.2179317479555555</v>
       </c>
       <c r="R14">
-        <v>1.197068139594</v>
+        <v>1.9613857316</v>
       </c>
       <c r="S14">
-        <v>0.001660897462393867</v>
+        <v>0.004465718287361024</v>
       </c>
       <c r="T14">
-        <v>0.001660897462393868</v>
+        <v>0.004465718287361023</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1903823333333333</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H15">
-        <v>0.5711470000000001</v>
+        <v>0.39979</v>
       </c>
       <c r="I15">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J15">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>8.741664453041889</v>
+        <v>6.118967676765556</v>
       </c>
       <c r="R15">
-        <v>78.674980077377</v>
+        <v>55.07070909089001</v>
       </c>
       <c r="S15">
-        <v>0.1091592620690098</v>
+        <v>0.125385980290837</v>
       </c>
       <c r="T15">
-        <v>0.1091592620690099</v>
+        <v>0.125385980290837</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1903823333333333</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H16">
-        <v>0.5711470000000001</v>
+        <v>0.39979</v>
       </c>
       <c r="I16">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J16">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>0.04437171236144445</v>
+        <v>0.1119364469411111</v>
       </c>
       <c r="R16">
-        <v>0.399345411253</v>
+        <v>1.00742802247</v>
       </c>
       <c r="S16">
-        <v>0.0005540802216937288</v>
+        <v>0.00229373022892048</v>
       </c>
       <c r="T16">
-        <v>0.0005540802216937289</v>
+        <v>0.002293730228920479</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1903823333333333</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H17">
-        <v>0.5711470000000001</v>
+        <v>0.39979</v>
       </c>
       <c r="I17">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J17">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>3.767024090134778</v>
+        <v>1.011605916812222</v>
       </c>
       <c r="R17">
-        <v>33.90321681121301</v>
+        <v>9.10445325131</v>
       </c>
       <c r="S17">
-        <v>0.04703973391843084</v>
+        <v>0.02072918280466531</v>
       </c>
       <c r="T17">
-        <v>0.04703973391843085</v>
+        <v>0.0207291828046653</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1903823333333333</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H18">
-        <v>0.5711470000000001</v>
+        <v>0.39979</v>
       </c>
       <c r="I18">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J18">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>0.4835552614722222</v>
+        <v>0.6370596346766666</v>
       </c>
       <c r="R18">
-        <v>4.351997353250001</v>
+        <v>5.73353671209</v>
       </c>
       <c r="S18">
-        <v>0.00603827060572282</v>
+        <v>0.01305421943981889</v>
       </c>
       <c r="T18">
-        <v>0.006038270605722822</v>
+        <v>0.01305421943981888</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1903823333333333</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H19">
-        <v>0.5711470000000001</v>
+        <v>0.39979</v>
       </c>
       <c r="I19">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J19">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>0.083419446232</v>
+        <v>0.02300751471</v>
       </c>
       <c r="R19">
-        <v>0.750775016088</v>
+        <v>0.20706763239</v>
       </c>
       <c r="S19">
-        <v>0.001041678646189845</v>
+        <v>0.0004714553072282444</v>
       </c>
       <c r="T19">
-        <v>0.001041678646189845</v>
+        <v>0.0004714553072282442</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4567919999999999</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H20">
-        <v>1.370376</v>
+        <v>0.330422</v>
       </c>
       <c r="I20">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J20">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N20">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q20">
-        <v>0.319130422128</v>
+        <v>0.1801181720977778</v>
       </c>
       <c r="R20">
-        <v>2.872173799152</v>
+        <v>1.62106354888</v>
       </c>
       <c r="S20">
-        <v>0.003985058174034807</v>
+        <v>0.003690866624844054</v>
       </c>
       <c r="T20">
-        <v>0.003985058174034807</v>
+        <v>0.003690866624844053</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4567919999999999</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H21">
-        <v>1.370376</v>
+        <v>0.330422</v>
       </c>
       <c r="I21">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J21">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
         <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q21">
-        <v>20.97422759202399</v>
+        <v>5.057258905155779</v>
       </c>
       <c r="R21">
-        <v>188.768048328216</v>
+        <v>45.51533014640201</v>
       </c>
       <c r="S21">
-        <v>0.2619102138627734</v>
+        <v>0.103630121763073</v>
       </c>
       <c r="T21">
-        <v>0.2619102138627734</v>
+        <v>0.1036301217630729</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4567919999999999</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H22">
-        <v>1.370376</v>
+        <v>0.330422</v>
       </c>
       <c r="I22">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J22">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N22">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q22">
-        <v>0.106462836536</v>
+        <v>0.09251423164955554</v>
       </c>
       <c r="R22">
-        <v>0.9581655288239999</v>
+        <v>0.8326280848459999</v>
       </c>
       <c r="S22">
-        <v>0.001329426991446624</v>
+        <v>0.00189574258911019</v>
       </c>
       <c r="T22">
-        <v>0.001329426991446625</v>
+        <v>0.001895742589110189</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4567919999999999</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H23">
-        <v>1.370376</v>
+        <v>0.330422</v>
       </c>
       <c r="I23">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J23">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N23">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q23">
-        <v>9.038372616055998</v>
+        <v>0.8360810681731111</v>
       </c>
       <c r="R23">
-        <v>81.34535354450399</v>
+        <v>7.524729613558</v>
       </c>
       <c r="S23">
-        <v>0.1128643281120334</v>
+        <v>0.01713243963251487</v>
       </c>
       <c r="T23">
-        <v>0.1128643281120335</v>
+        <v>0.01713243963251487</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4567919999999999</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H24">
-        <v>1.370376</v>
+        <v>0.330422</v>
       </c>
       <c r="I24">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J24">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N24">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q24">
-        <v>1.160213614</v>
+        <v>0.5265227209513333</v>
       </c>
       <c r="R24">
-        <v>10.441922526</v>
+        <v>4.738704488562</v>
       </c>
       <c r="S24">
-        <v>0.01448786585517916</v>
+        <v>0.01078916755232456</v>
       </c>
       <c r="T24">
-        <v>0.01448786585517917</v>
+        <v>0.01078916755232456</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4567919999999999</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H25">
-        <v>1.370376</v>
+        <v>0.330422</v>
       </c>
       <c r="I25">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J25">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N25">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q25">
-        <v>0.2001516370559999</v>
+        <v>0.019015455678</v>
       </c>
       <c r="R25">
-        <v>1.801364733504</v>
+        <v>0.171139101102</v>
       </c>
       <c r="S25">
-        <v>0.002499341529327921</v>
+        <v>0.0003896525814176717</v>
       </c>
       <c r="T25">
-        <v>0.002499341529327922</v>
+        <v>0.0003896525814176716</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.072059</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H26">
-        <v>0.216177</v>
+        <v>0.128686</v>
       </c>
       <c r="I26">
-        <v>0.06263882989111505</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J26">
-        <v>0.06263882989111506</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N26">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q26">
-        <v>0.050342867406</v>
+        <v>0.07014874038222223</v>
       </c>
       <c r="R26">
-        <v>0.4530858066540001</v>
+        <v>0.63133866344</v>
       </c>
       <c r="S26">
-        <v>0.0006286434678426377</v>
+        <v>0.001437443216507018</v>
       </c>
       <c r="T26">
-        <v>0.0006286434678426378</v>
+        <v>0.001437443216507018</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.072059</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H27">
-        <v>0.216177</v>
+        <v>0.128686</v>
       </c>
       <c r="I27">
-        <v>0.06263882989111505</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J27">
-        <v>0.06263882989111506</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
         <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q27">
-        <v>3.308687249456333</v>
+        <v>1.969597724936223</v>
       </c>
       <c r="R27">
-        <v>29.778185245107</v>
+        <v>17.726379524426</v>
       </c>
       <c r="S27">
-        <v>0.041316371785709</v>
+        <v>0.0403597395125107</v>
       </c>
       <c r="T27">
-        <v>0.04131637178570901</v>
+        <v>0.04035973951251068</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.072059</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H28">
-        <v>0.216177</v>
+        <v>0.128686</v>
       </c>
       <c r="I28">
-        <v>0.06263882989111505</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J28">
-        <v>0.06263882989111506</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N28">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q28">
-        <v>0.01679452691366667</v>
+        <v>0.03603055006644444</v>
       </c>
       <c r="R28">
-        <v>0.151150742223</v>
+        <v>0.3242749505979999</v>
       </c>
       <c r="S28">
-        <v>0.00020971728834273</v>
+        <v>0.0007383150359910476</v>
       </c>
       <c r="T28">
-        <v>0.00020971728834273</v>
+        <v>0.0007383150359910472</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.072059</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H29">
-        <v>0.216177</v>
+        <v>0.128686</v>
       </c>
       <c r="I29">
-        <v>0.06263882989111505</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J29">
-        <v>0.06263882989111506</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N29">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q29">
-        <v>1.425804506953667</v>
+        <v>0.3256197478948889</v>
       </c>
       <c r="R29">
-        <v>12.832240562583</v>
+        <v>2.930577731054</v>
       </c>
       <c r="S29">
-        <v>0.01780436307865509</v>
+        <v>0.006672392051830111</v>
       </c>
       <c r="T29">
-        <v>0.0178043630786551</v>
+        <v>0.006672392051830107</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.072059</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H30">
-        <v>0.216177</v>
+        <v>0.128686</v>
       </c>
       <c r="I30">
-        <v>0.06263882989111505</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J30">
-        <v>0.06263882989111506</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N30">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q30">
-        <v>0.1830238550833333</v>
+        <v>0.2050592965006667</v>
       </c>
       <c r="R30">
-        <v>1.64721469575</v>
+        <v>1.845533668506</v>
       </c>
       <c r="S30">
-        <v>0.002285462805080552</v>
+        <v>0.00420194422780093</v>
       </c>
       <c r="T30">
-        <v>0.002285462805080552</v>
+        <v>0.004201944227800927</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.072059</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H31">
-        <v>0.216177</v>
+        <v>0.128686</v>
       </c>
       <c r="I31">
-        <v>0.06263882989111505</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J31">
-        <v>0.06263882989111506</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N31">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q31">
-        <v>0.03157394791199999</v>
+        <v>0.007405750614</v>
       </c>
       <c r="R31">
-        <v>0.284165531208</v>
+        <v>0.066651755526</v>
       </c>
       <c r="S31">
-        <v>0.0003942714654850363</v>
+        <v>0.0001517539149702941</v>
       </c>
       <c r="T31">
-        <v>0.0003942714654850364</v>
+        <v>0.000151753914970294</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.1220543333333333</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H32">
-        <v>0.366163</v>
+        <v>0.57148</v>
       </c>
       <c r="I32">
-        <v>0.1060983447333452</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J32">
-        <v>0.1060983447333452</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N32">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q32">
-        <v>0.08527130711400001</v>
+        <v>0.3115226376888889</v>
       </c>
       <c r="R32">
-        <v>0.7674417640260001</v>
+        <v>2.8037037392</v>
       </c>
       <c r="S32">
-        <v>0.001064803277479398</v>
+        <v>0.006383523066762747</v>
       </c>
       <c r="T32">
-        <v>0.001064803277479398</v>
+        <v>0.006383523066762744</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.1220543333333333</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H33">
-        <v>0.366163</v>
+        <v>0.57148</v>
       </c>
       <c r="I33">
-        <v>0.1060983447333452</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J33">
-        <v>0.1060983447333452</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
         <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q33">
-        <v>5.604291156425888</v>
+        <v>8.74676116940889</v>
       </c>
       <c r="R33">
-        <v>50.438620407833</v>
+        <v>78.72085052468002</v>
       </c>
       <c r="S33">
-        <v>0.06998212872863703</v>
+        <v>0.1792330473913993</v>
       </c>
       <c r="T33">
-        <v>0.06998212872863703</v>
+        <v>0.1792330473913993</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.1220543333333333</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H34">
-        <v>0.366163</v>
+        <v>0.57148</v>
       </c>
       <c r="I34">
-        <v>0.1060983447333452</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J34">
-        <v>0.1060983447333452</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N34">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q34">
-        <v>0.02844675593744445</v>
+        <v>0.1600076057377778</v>
       </c>
       <c r="R34">
-        <v>0.256020803437</v>
+        <v>1.44006845164</v>
       </c>
       <c r="S34">
-        <v>0.0003552214687568014</v>
+        <v>0.003278773734269181</v>
       </c>
       <c r="T34">
-        <v>0.0003552214687568014</v>
+        <v>0.00327877373426918</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.1220543333333333</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H35">
-        <v>0.366163</v>
+        <v>0.57148</v>
       </c>
       <c r="I35">
-        <v>0.1060983447333452</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J35">
-        <v>0.1060983447333452</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N35">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q35">
-        <v>2.415043486030778</v>
+        <v>1.446040544635556</v>
       </c>
       <c r="R35">
-        <v>21.735391374277</v>
+        <v>13.01436490172</v>
       </c>
       <c r="S35">
-        <v>0.03015722763277123</v>
+        <v>0.02963133992648673</v>
       </c>
       <c r="T35">
-        <v>0.03015722763277123</v>
+        <v>0.02963133992648672</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.1220543333333333</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H36">
-        <v>0.366163</v>
+        <v>0.57148</v>
       </c>
       <c r="I36">
-        <v>0.1060983447333452</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J36">
-        <v>0.1060983447333452</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N36">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q36">
-        <v>0.3100078354722222</v>
+        <v>0.9106451887866667</v>
       </c>
       <c r="R36">
-        <v>2.79007051925</v>
+        <v>8.19580669908</v>
       </c>
       <c r="S36">
-        <v>0.003871142244996971</v>
+        <v>0.01866036000267065</v>
       </c>
       <c r="T36">
-        <v>0.003871142244996971</v>
+        <v>0.01866036000267064</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.1904933333333333</v>
+      </c>
+      <c r="H37">
+        <v>0.57148</v>
+      </c>
+      <c r="I37">
+        <v>0.237860966128079</v>
+      </c>
+      <c r="J37">
+        <v>0.2378609661280789</v>
+      </c>
+      <c r="K37">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="L37">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G37">
-        <v>0.1220543333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.366163</v>
-      </c>
-      <c r="I37">
-        <v>0.1060983447333452</v>
-      </c>
-      <c r="J37">
-        <v>0.1060983447333452</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
       <c r="M37">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N37">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q37">
-        <v>0.05348030312799999</v>
+        <v>0.03288810252</v>
       </c>
       <c r="R37">
-        <v>0.481322728152</v>
+        <v>0.29599292268</v>
       </c>
       <c r="S37">
-        <v>0.000667821380703763</v>
+        <v>0.0006739220064904003</v>
       </c>
       <c r="T37">
-        <v>0.000667821380703763</v>
+        <v>0.0006739220064904</v>
       </c>
     </row>
   </sheetData>
